--- a/output/ANALISIS_03.2025/ts_data_03.2025.xlsx
+++ b/output/ANALISIS_03.2025/ts_data_03.2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -20,436 +20,544 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11.1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12.1960</t>
+    <t xml:space="preserve">1.01.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12.2024</t>
   </si>
 </sst>
 </file>
@@ -794,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>112</v>
+        <v>12624231854.97</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>118</v>
+        <v>14503999598.05</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>132</v>
+        <v>16820353431.24</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>129</v>
+        <v>14680249490.27</v>
       </c>
     </row>
     <row r="6">
@@ -826,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>121</v>
+        <v>16048667423.64</v>
       </c>
     </row>
     <row r="7">
@@ -834,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>16715443060.33</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>148</v>
+        <v>16350395215.61</v>
       </c>
     </row>
     <row r="9">
@@ -850,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>148</v>
+        <v>12573129432.29</v>
       </c>
     </row>
     <row r="10">
@@ -858,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>16092699537.4</v>
       </c>
     </row>
     <row r="11">
@@ -866,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>119</v>
+        <v>17142141613.15</v>
       </c>
     </row>
     <row r="12">
@@ -874,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>17505428365.72</v>
       </c>
     </row>
     <row r="13">
@@ -882,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>118</v>
+        <v>15723331531.34</v>
       </c>
     </row>
     <row r="14">
@@ -890,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>115</v>
+        <v>16614259593.09</v>
       </c>
     </row>
     <row r="15">
@@ -898,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>126</v>
+        <v>17676880720.08</v>
       </c>
     </row>
     <row r="16">
@@ -906,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>141</v>
+        <v>20528684914.77</v>
       </c>
     </row>
     <row r="17">
@@ -914,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>135</v>
+        <v>17522890653.38</v>
       </c>
     </row>
     <row r="18">
@@ -922,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>125</v>
+        <v>18748391126.78</v>
       </c>
     </row>
     <row r="19">
@@ -930,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>149</v>
+        <v>18918139125.88</v>
       </c>
     </row>
     <row r="20">
@@ -938,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>170</v>
+        <v>18140584660.39</v>
       </c>
     </row>
     <row r="21">
@@ -946,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>170</v>
+        <v>14577160568.78</v>
       </c>
     </row>
     <row r="22">
@@ -954,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>158</v>
+        <v>18486111067.5</v>
       </c>
     </row>
     <row r="23">
@@ -962,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>133</v>
+        <v>18084809373.38</v>
       </c>
     </row>
     <row r="24">
@@ -970,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>114</v>
+        <v>18808782124.31</v>
       </c>
     </row>
     <row r="25">
@@ -978,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>140</v>
+        <v>17123676781.21</v>
       </c>
     </row>
     <row r="26">
@@ -986,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>145</v>
+        <v>17570511992.87</v>
       </c>
     </row>
     <row r="27">
@@ -994,7 +1102,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>150</v>
+        <v>18498088506.75</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>178</v>
+        <v>20336074928.35</v>
       </c>
     </row>
     <row r="29">
@@ -1010,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>163</v>
+        <v>17635566457.8</v>
       </c>
     </row>
     <row r="30">
@@ -1018,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>172</v>
+        <v>19847834818.62</v>
       </c>
     </row>
     <row r="31">
@@ -1026,7 +1134,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>178</v>
+        <v>19416516502.17</v>
       </c>
     </row>
     <row r="32">
@@ -1034,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>199</v>
+        <v>19899820363.8</v>
       </c>
     </row>
     <row r="33">
@@ -1042,7 +1150,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>199</v>
+        <v>16177111593.36</v>
       </c>
     </row>
     <row r="34">
@@ -1050,7 +1158,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>184</v>
+        <v>18222180273.97</v>
       </c>
     </row>
     <row r="35">
@@ -1058,7 +1166,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>162</v>
+        <v>20911618209.86</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>146</v>
+        <v>19785631615.54</v>
       </c>
     </row>
     <row r="37">
@@ -1074,7 +1182,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>166</v>
+        <v>17813638711.18</v>
       </c>
     </row>
     <row r="38">
@@ -1082,7 +1190,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>171</v>
+        <v>18698937377.86</v>
       </c>
     </row>
     <row r="39">
@@ -1090,7 +1198,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>180</v>
+        <v>19199997076.83</v>
       </c>
     </row>
     <row r="40">
@@ -1098,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>193</v>
+        <v>21089537433.11</v>
       </c>
     </row>
     <row r="41">
@@ -1106,7 +1214,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>181</v>
+        <v>20466744077.9</v>
       </c>
     </row>
     <row r="42">
@@ -1114,7 +1222,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>183</v>
+        <v>20938367500.33</v>
       </c>
     </row>
     <row r="43">
@@ -1122,7 +1230,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>218</v>
+        <v>20399190130.91</v>
       </c>
     </row>
     <row r="44">
@@ -1130,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>230</v>
+        <v>20865172741.21</v>
       </c>
     </row>
     <row r="45">
@@ -1138,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>242</v>
+        <v>16416920313.86</v>
       </c>
     </row>
     <row r="46">
@@ -1146,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>209</v>
+        <v>18918139362.95</v>
       </c>
     </row>
     <row r="47">
@@ -1154,7 +1262,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>191</v>
+        <v>21286216783.98</v>
       </c>
     </row>
     <row r="48">
@@ -1162,7 +1270,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>172</v>
+        <v>19176521026.01</v>
       </c>
     </row>
     <row r="49">
@@ -1170,7 +1278,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>194</v>
+        <v>18358325218.63</v>
       </c>
     </row>
     <row r="50">
@@ -1178,7 +1286,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>196</v>
+        <v>19156938265</v>
       </c>
     </row>
     <row r="51">
@@ -1186,7 +1294,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>196</v>
+        <v>19787928188.63</v>
       </c>
     </row>
     <row r="52">
@@ -1194,7 +1302,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>236</v>
+        <v>20527749705.96</v>
       </c>
     </row>
     <row r="53">
@@ -1202,7 +1310,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>235</v>
+        <v>19770143631.38</v>
       </c>
     </row>
     <row r="54">
@@ -1210,7 +1318,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>229</v>
+        <v>20509576088.79</v>
       </c>
     </row>
     <row r="55">
@@ -1218,7 +1326,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>243</v>
+        <v>20886784453.17</v>
       </c>
     </row>
     <row r="56">
@@ -1226,7 +1334,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>264</v>
+        <v>21882800087.24</v>
       </c>
     </row>
     <row r="57">
@@ -1234,7 +1342,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>272</v>
+        <v>15676972454.64</v>
       </c>
     </row>
     <row r="58">
@@ -1242,7 +1350,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>237</v>
+        <v>20797023430.76</v>
       </c>
     </row>
     <row r="59">
@@ -1250,7 +1358,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>211</v>
+        <v>22138594991.94</v>
       </c>
     </row>
     <row r="60">
@@ -1258,7 +1366,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>180</v>
+        <v>20224570671.24</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1374,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>201</v>
+        <v>19222748254.68</v>
       </c>
     </row>
     <row r="62">
@@ -1274,7 +1382,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>204</v>
+        <v>18484057076.54</v>
       </c>
     </row>
     <row r="63">
@@ -1282,7 +1390,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>188</v>
+        <v>19978938602.16</v>
       </c>
     </row>
     <row r="64">
@@ -1290,7 +1398,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>235</v>
+        <v>23105964822.44</v>
       </c>
     </row>
     <row r="65">
@@ -1298,7 +1406,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>227</v>
+        <v>20763376286.92</v>
       </c>
     </row>
     <row r="66">
@@ -1306,7 +1414,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>234</v>
+        <v>21228479756.33</v>
       </c>
     </row>
     <row r="67">
@@ -1314,7 +1422,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>264</v>
+        <v>22400532079.7</v>
       </c>
     </row>
     <row r="68">
@@ -1322,7 +1430,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>302</v>
+        <v>23298194045.18</v>
       </c>
     </row>
     <row r="69">
@@ -1330,7 +1438,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>293</v>
+        <v>15806837876.83</v>
       </c>
     </row>
     <row r="70">
@@ -1338,7 +1446,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>259</v>
+        <v>21057941254.64</v>
       </c>
     </row>
     <row r="71">
@@ -1346,7 +1454,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>229</v>
+        <v>22074012260.83</v>
       </c>
     </row>
     <row r="72">
@@ -1354,7 +1462,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>203</v>
+        <v>21600003091.28</v>
       </c>
     </row>
     <row r="73">
@@ -1362,7 +1470,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>229</v>
+        <v>19996078498.11</v>
       </c>
     </row>
     <row r="74">
@@ -1370,7 +1478,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>242</v>
+        <v>18590906901.64</v>
       </c>
     </row>
     <row r="75">
@@ -1378,7 +1486,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>233</v>
+        <v>21029966346.79</v>
       </c>
     </row>
     <row r="76">
@@ -1386,7 +1494,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>267</v>
+        <v>22171598110.14</v>
       </c>
     </row>
     <row r="77">
@@ -1394,7 +1502,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>269</v>
+        <v>22276214531.44</v>
       </c>
     </row>
     <row r="78">
@@ -1402,7 +1510,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>270</v>
+        <v>22207182833.96</v>
       </c>
     </row>
     <row r="79">
@@ -1410,7 +1518,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>315</v>
+        <v>22837840765.13</v>
       </c>
     </row>
     <row r="80">
@@ -1418,7 +1526,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>364</v>
+        <v>22154718300.17</v>
       </c>
     </row>
     <row r="81">
@@ -1426,7 +1534,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>347</v>
+        <v>17353632155.84</v>
       </c>
     </row>
     <row r="82">
@@ -1434,7 +1542,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>312</v>
+        <v>21611323141.5</v>
       </c>
     </row>
     <row r="83">
@@ -1442,7 +1550,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>274</v>
+        <v>21758681587.6</v>
       </c>
     </row>
     <row r="84">
@@ -1450,7 +1558,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>237</v>
+        <v>23526303992.85</v>
       </c>
     </row>
     <row r="85">
@@ -1458,7 +1566,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>278</v>
+        <v>20875011412.2</v>
       </c>
     </row>
     <row r="86">
@@ -1466,7 +1574,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>284</v>
+        <v>22109247086.15</v>
       </c>
     </row>
     <row r="87">
@@ -1474,7 +1582,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>277</v>
+        <v>22234746724.37</v>
       </c>
     </row>
     <row r="88">
@@ -1482,7 +1590,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>317</v>
+        <v>26598717596.76</v>
       </c>
     </row>
     <row r="89">
@@ -1490,7 +1598,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>313</v>
+        <v>21199777769.34</v>
       </c>
     </row>
     <row r="90">
@@ -1498,7 +1606,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>318</v>
+        <v>24937109174.87</v>
       </c>
     </row>
     <row r="91">
@@ -1506,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>374</v>
+        <v>24232828300.78</v>
       </c>
     </row>
     <row r="92">
@@ -1514,7 +1622,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>413</v>
+        <v>22201046117.83</v>
       </c>
     </row>
     <row r="93">
@@ -1522,7 +1630,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>405</v>
+        <v>18824773831.77</v>
       </c>
     </row>
     <row r="94">
@@ -1530,7 +1638,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>355</v>
+        <v>22958075843.95</v>
       </c>
     </row>
     <row r="95">
@@ -1538,7 +1646,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>306</v>
+        <v>24543055576.91</v>
       </c>
     </row>
     <row r="96">
@@ -1546,7 +1654,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>271</v>
+        <v>25119830144.66</v>
       </c>
     </row>
     <row r="97">
@@ -1554,7 +1662,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>306</v>
+        <v>21183698375.13</v>
       </c>
     </row>
     <row r="98">
@@ -1562,7 +1670,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>315</v>
+        <v>23005094628.32</v>
       </c>
     </row>
     <row r="99">
@@ -1570,7 +1678,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>301</v>
+        <v>22714857499.74</v>
       </c>
     </row>
     <row r="100">
@@ -1578,7 +1686,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>356</v>
+        <v>25148198765.21</v>
       </c>
     </row>
     <row r="101">
@@ -1586,7 +1694,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>348</v>
+        <v>24396334932.48</v>
       </c>
     </row>
     <row r="102">
@@ -1594,7 +1702,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>355</v>
+        <v>25607875584.98</v>
       </c>
     </row>
     <row r="103">
@@ -1602,7 +1710,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>422</v>
+        <v>25061808320.38</v>
       </c>
     </row>
     <row r="104">
@@ -1610,7 +1718,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>465</v>
+        <v>24505809215.45</v>
       </c>
     </row>
     <row r="105">
@@ -1618,7 +1726,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>467</v>
+        <v>20196141590.27</v>
       </c>
     </row>
     <row r="106">
@@ -1626,7 +1734,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>404</v>
+        <v>22310263161.67</v>
       </c>
     </row>
     <row r="107">
@@ -1634,7 +1742,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>347</v>
+        <v>26234510769.51</v>
       </c>
     </row>
     <row r="108">
@@ -1642,7 +1750,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>305</v>
+        <v>25005533244.42</v>
       </c>
     </row>
     <row r="109">
@@ -1650,7 +1758,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>336</v>
+        <v>21074113584.42</v>
       </c>
     </row>
     <row r="110">
@@ -1658,7 +1766,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>340</v>
+        <v>23280437399.1</v>
       </c>
     </row>
     <row r="111">
@@ -1666,7 +1774,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>318</v>
+        <v>23471310726.09</v>
       </c>
     </row>
     <row r="112">
@@ -1674,7 +1782,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>362</v>
+        <v>26105499507.42</v>
       </c>
     </row>
     <row r="113">
@@ -1682,7 +1790,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>348</v>
+        <v>24810628319.25</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1798,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>363</v>
+        <v>26687658593.03</v>
       </c>
     </row>
     <row r="115">
@@ -1698,7 +1806,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>435</v>
+        <v>24381923117.21</v>
       </c>
     </row>
     <row r="116">
@@ -1706,7 +1814,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>491</v>
+        <v>25912142498.83</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1822,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>505</v>
+        <v>18823126464.85</v>
       </c>
     </row>
     <row r="118">
@@ -1722,7 +1830,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>404</v>
+        <v>23416644923.28</v>
       </c>
     </row>
     <row r="119">
@@ -1730,7 +1838,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>359</v>
+        <v>26895531217.62</v>
       </c>
     </row>
     <row r="120">
@@ -1738,7 +1846,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>310</v>
+        <v>24757863734.46</v>
       </c>
     </row>
     <row r="121">
@@ -1746,7 +1854,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>337</v>
+        <v>22350040871.16</v>
       </c>
     </row>
     <row r="122">
@@ -1754,7 +1862,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>360</v>
+        <v>23649582195.74</v>
       </c>
     </row>
     <row r="123">
@@ -1762,7 +1870,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>342</v>
+        <v>24327819889.37</v>
       </c>
     </row>
     <row r="124">
@@ -1770,7 +1878,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>406</v>
+        <v>22372332995.45</v>
       </c>
     </row>
     <row r="125">
@@ -1778,7 +1886,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>396</v>
+        <v>15041493356.07</v>
       </c>
     </row>
     <row r="126">
@@ -1786,7 +1894,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>420</v>
+        <v>17564381451.52</v>
       </c>
     </row>
     <row r="127">
@@ -1794,7 +1902,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>472</v>
+        <v>22410253314.67</v>
       </c>
     </row>
     <row r="128">
@@ -1802,7 +1910,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>548</v>
+        <v>23625977688.31</v>
       </c>
     </row>
     <row r="129">
@@ -1810,7 +1918,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>559</v>
+        <v>17564951235.05</v>
       </c>
     </row>
     <row r="130">
@@ -1818,7 +1926,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>463</v>
+        <v>23614579262.4</v>
       </c>
     </row>
     <row r="131">
@@ -1826,7 +1934,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>407</v>
+        <v>25276874963.56</v>
       </c>
     </row>
     <row r="132">
@@ -1834,7 +1942,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>362</v>
+        <v>25018965177.91</v>
       </c>
     </row>
     <row r="133">
@@ -1842,7 +1950,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>405</v>
+        <v>23161050628.98</v>
       </c>
     </row>
     <row r="134">
@@ -1850,7 +1958,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>417</v>
+        <v>21211565448.17</v>
       </c>
     </row>
     <row r="135">
@@ -1858,7 +1966,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>391</v>
+        <v>24125863791.66</v>
       </c>
     </row>
     <row r="136">
@@ -1866,7 +1974,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>419</v>
+        <v>28863594505</v>
       </c>
     </row>
     <row r="137">
@@ -1874,7 +1982,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>461</v>
+        <v>26079191524.9</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1990,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>472</v>
+        <v>26446332674.73</v>
       </c>
     </row>
     <row r="139">
@@ -1890,7 +1998,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>535</v>
+        <v>27145195847.03</v>
       </c>
     </row>
     <row r="140">
@@ -1898,7 +2006,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>622</v>
+        <v>26746017149.58</v>
       </c>
     </row>
     <row r="141">
@@ -1906,7 +2014,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>606</v>
+        <v>21836757367.17</v>
       </c>
     </row>
     <row r="142">
@@ -1914,7 +2022,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="n">
-        <v>508</v>
+        <v>27418676758.47</v>
       </c>
     </row>
     <row r="143">
@@ -1922,7 +2030,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>461</v>
+        <v>27422017182.6</v>
       </c>
     </row>
     <row r="144">
@@ -1930,7 +2038,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>390</v>
+        <v>30045242268.01</v>
       </c>
     </row>
     <row r="145">
@@ -1938,7 +2046,295 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>432</v>
+        <v>27518091217.53</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27357041104.04</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>29965475104.61</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>33060506766.98</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>31278114584.84</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>34938008239.18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>34601253141.6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>32037489870.73</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>28266964592.43</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>34314127896.88</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>32797137766.25</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>37321277493.94</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>31661623567.81</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>30920969219.51</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>32830165113.88</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>38932728484.02</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
+        <v>29342437952.28</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="n">
+        <v>33942406766.28</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="n">
+        <v>33982453989.43</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="n">
+        <v>30445789879.38</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="n">
+        <v>26173676040.63</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="n">
+        <v>31014884439.35</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="n">
+        <v>32276872881.7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="n">
+        <v>34878346913.35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="n">
+        <v>28947870422.63</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="n">
+        <v>30144188447.4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="n">
+        <v>31834868145.3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="n">
+        <v>31450458377.7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="n">
+        <v>33990782625.57</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="n">
+        <v>34716427439.82</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="n">
+        <v>32968748841.82</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="n">
+        <v>33269564393.18</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="n">
+        <v>26833928510.73</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="n">
+        <v>31596859336.45</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="n">
+        <v>35280246222.21</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="n">
+        <v>32640410863.39</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="n">
+        <v>29738373999.74</v>
       </c>
     </row>
   </sheetData>
